--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
@@ -160,12 +160,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.41796875" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="4" width="14.41796875" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" customWidth="1"/>
-    <col min="6" max="6" width="9.27734375" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.41796875" customWidth="1"/>
+    <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.41796875" customWidth="1"/>
+    <col min="5" max="5" width="12.41796875" customWidth="1"/>
+    <col min="6" max="6" width="11.27734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
@@ -47,10 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -129,10 +128,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9" count="9">
   <si>
     <t>Number</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Bool</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>value</t>
@@ -196,11 +199,11 @@
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>43831.427141203705</v>
@@ -209,7 +212,7 @@
         <v>43831</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="b">
         <v>1</v>

--- a/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/NullableTests.Nulls.verified.xlsx
@@ -162,12 +162,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.41796875" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.41796875" customWidth="1"/>
-    <col min="5" max="5" width="12.41796875" customWidth="1"/>
-    <col min="6" max="6" width="11.27734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
